--- a/level-2/leetcode/phase-2-nonlinear-data-structures-1/leetcode-phase-2-nonlinear-data-structures-1.xlsx
+++ b/level-2/leetcode/phase-2-nonlinear-data-structures-1/leetcode-phase-2-nonlinear-data-structures-1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017835B4-07AF-4EA4-A745-895A3CDA384C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95C22D5-DD92-4921-AA24-C3978C9C1459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4980,101 +4980,6 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J1 J20:J23 A1 I24:J26">
-    <cfRule type="cellIs" dxfId="18" priority="33" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="17" priority="32" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="16" priority="31" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J63:J65 J67:J70">
-    <cfRule type="cellIs" dxfId="15" priority="29" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J66">
-    <cfRule type="cellIs" dxfId="14" priority="28" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J71">
-    <cfRule type="cellIs" dxfId="13" priority="27" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J63:J71">
-    <cfRule type="cellIs" dxfId="12" priority="26" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J72">
-    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J72">
-    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J73">
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J73">
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I23">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63:I65 I67:I70">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I66">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I71">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63:I71">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="J152" r:id="rId1" display="https://leetcode.com/problems/valid-parentheses/" xr:uid="{E156D9EF-CC88-4773-B834-3696B6256CB9}"/>
     <hyperlink ref="J153" r:id="rId2" display="https://leetcode.com/problems/design-a-stack-with-increment-operation/" xr:uid="{FD21A1DA-29DA-495F-A5D7-C1064A48F08B}"/>

--- a/level-2/leetcode/phase-2-nonlinear-data-structures-1/leetcode-phase-2-nonlinear-data-structures-1.xlsx
+++ b/level-2/leetcode/phase-2-nonlinear-data-structures-1/leetcode-phase-2-nonlinear-data-structures-1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95C22D5-DD92-4921-AA24-C3978C9C1459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EE4CDC-5D34-427F-AC8B-9728949F1835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -837,141 +837,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1372,27 +1238,27 @@
       <c r="A3" s="18"/>
       <c r="B3" s="14"/>
       <c r="C3" s="6" t="e">
-        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C176)</f>
+        <f>AVERAGE(C4:C169)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(D4:D169)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(E4:E169)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F4:F169)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(G4:G169)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H4:H169)</f>
         <v>0</v>
       </c>
       <c r="I3" s="5">
@@ -1417,7 +1283,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="7">
-        <f t="shared" ref="H4:H35" si="1">SUM(C4:G4)</f>
+        <f t="shared" ref="H4:H35" si="0">SUM(C4:G4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
@@ -1438,7 +1304,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J5" s="10" t="s">
@@ -1458,7 +1324,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I6" s="2"/>
@@ -1479,7 +1345,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I7" s="2"/>
@@ -1500,7 +1366,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I8" s="2"/>
@@ -1521,7 +1387,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I9" s="2"/>
@@ -1542,7 +1408,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I10" s="2"/>
@@ -1563,7 +1429,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I11" s="2"/>
@@ -1584,7 +1450,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I12" s="2"/>
@@ -1605,7 +1471,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I13" s="2"/>
@@ -1626,7 +1492,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14" s="2"/>
@@ -1647,7 +1513,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I15" s="2"/>
@@ -1668,7 +1534,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I16" s="2"/>
@@ -1689,7 +1555,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I17" s="2"/>
@@ -1710,7 +1576,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I18" s="2"/>
@@ -1731,7 +1597,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I19" s="2"/>
@@ -1752,7 +1618,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I20" s="2"/>
@@ -1773,7 +1639,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
@@ -1794,7 +1660,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
@@ -1815,7 +1681,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
@@ -1836,7 +1702,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
@@ -1857,7 +1723,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I25" s="2"/>
@@ -1878,7 +1744,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I26" s="2"/>
@@ -1899,7 +1765,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I27" s="2"/>
@@ -1920,7 +1786,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I28" s="2"/>
@@ -1941,7 +1807,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I29" s="2"/>
@@ -1962,7 +1828,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I30" s="2"/>
@@ -1983,7 +1849,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I31" s="2"/>
@@ -2004,7 +1870,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I32" s="2"/>
@@ -2025,7 +1891,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I33" s="2"/>
@@ -2046,7 +1912,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I34" s="2"/>
@@ -2067,7 +1933,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I35" s="2"/>
@@ -2088,7 +1954,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="7">
-        <f t="shared" ref="H36:H67" si="2">SUM(C36:G36)</f>
+        <f t="shared" ref="H36:H67" si="1">SUM(C36:G36)</f>
         <v>0</v>
       </c>
       <c r="I36" s="2"/>
@@ -2109,7 +1975,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I37" s="2"/>
@@ -2130,7 +1996,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I38" s="2"/>
@@ -2151,7 +2017,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I39" s="2"/>
@@ -2172,7 +2038,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I40" s="2"/>
@@ -2193,7 +2059,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I41" s="2"/>
@@ -2214,7 +2080,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I42" s="2"/>
@@ -2235,7 +2101,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I43" s="2"/>
@@ -2256,7 +2122,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I44" s="2"/>
@@ -2277,7 +2143,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I45" s="2"/>
@@ -2298,7 +2164,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I46" s="2"/>
@@ -2319,7 +2185,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I47" s="2"/>
@@ -2340,7 +2206,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I48" s="2"/>
@@ -2361,7 +2227,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I49" s="2"/>
@@ -2382,7 +2248,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I50" s="2"/>
@@ -2403,7 +2269,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I51" s="2"/>
@@ -2424,7 +2290,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I52" s="2"/>
@@ -2445,7 +2311,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I53" s="2"/>
@@ -2466,7 +2332,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I54" s="2"/>
@@ -2487,7 +2353,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I55" s="2"/>
@@ -2508,7 +2374,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I56" s="2"/>
@@ -2529,7 +2395,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I57" s="2"/>
@@ -2550,7 +2416,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I58" s="2"/>
@@ -2571,7 +2437,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I59" s="2"/>
@@ -2592,7 +2458,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I60" s="2"/>
@@ -2613,7 +2479,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I61" s="2"/>
@@ -2634,7 +2500,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I62" s="2"/>
@@ -2655,7 +2521,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I63" s="2"/>
@@ -2676,7 +2542,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I64" s="2"/>
@@ -2697,7 +2563,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I65" s="2"/>
@@ -2718,7 +2584,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I66" s="2"/>
@@ -2739,7 +2605,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I67" s="2"/>
@@ -2760,7 +2626,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="7">
-        <f t="shared" ref="H68:H99" si="3">SUM(C68:G68)</f>
+        <f t="shared" ref="H68:H99" si="2">SUM(C68:G68)</f>
         <v>0</v>
       </c>
       <c r="I68" s="2"/>
@@ -2781,7 +2647,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I69" s="2"/>
@@ -2802,7 +2668,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I70" s="2"/>
@@ -2823,7 +2689,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I71" s="2"/>
@@ -2844,7 +2710,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c r="H72" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I72" s="2"/>
@@ -2865,7 +2731,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c r="H73" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I73" s="2"/>
@@ -2886,7 +2752,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c r="H74" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J74" s="11" t="s">
@@ -2906,7 +2772,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c r="H75" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J75" s="11" t="s">
@@ -2926,7 +2792,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c r="H76" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J76" s="11" t="s">
@@ -2946,7 +2812,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c r="H77" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J77" s="11" t="s">
@@ -2966,7 +2832,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c r="H78" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J78" s="11" t="s">
@@ -2986,7 +2852,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c r="H79" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J79" s="11" t="s">
@@ -3006,7 +2872,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c r="H80" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J80" s="11" t="s">
@@ -3026,7 +2892,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c r="H81" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J81" s="11" t="s">
@@ -3046,7 +2912,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c r="H82" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J82" s="11" t="s">
@@ -3066,7 +2932,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c r="H83" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J83" s="11" t="s">
@@ -3086,7 +2952,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c r="H84" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J84" s="11" t="s">
@@ -3106,7 +2972,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J85" s="11" t="s">
@@ -3126,7 +2992,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c r="H86" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J86" s="11" t="s">
@@ -3146,7 +3012,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c r="H87" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J87" s="11" t="s">
@@ -3166,7 +3032,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c r="H88" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J88" s="11" t="s">
@@ -3186,7 +3052,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c r="H89" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J89" s="11" t="s">
@@ -3206,7 +3072,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c r="H90" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J90" s="11" t="s">
@@ -3226,7 +3092,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c r="H91" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J91" s="11" t="s">
@@ -3246,7 +3112,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c r="H92" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J92" s="11" t="s">
@@ -3266,7 +3132,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c r="H93" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J93" s="11" t="s">
@@ -3286,7 +3152,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c r="H94" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J94" s="11" t="s">
@@ -3306,7 +3172,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c r="H95" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J95" s="11" t="s">
@@ -3326,7 +3192,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c r="H96" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J96" s="11" t="s">
@@ -3346,7 +3212,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c r="H97" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J97" s="11" t="s">
@@ -3366,7 +3232,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c r="H98" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J98" s="11" t="s">
@@ -3386,7 +3252,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c r="H99" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J99" s="11" t="s">
@@ -3406,7 +3272,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c r="H100" s="7">
-        <f t="shared" ref="H100:H131" si="4">SUM(C100:G100)</f>
+        <f t="shared" ref="H100:H128" si="3">SUM(C100:G100)</f>
         <v>0</v>
       </c>
       <c r="J100" s="11" t="s">
@@ -3426,7 +3292,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c r="H101" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J101" s="11" t="s">
@@ -3446,7 +3312,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c r="H102" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J102" s="11" t="s">
@@ -3466,7 +3332,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c r="H103" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J103" s="11" t="s">
@@ -3486,7 +3352,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c r="H104" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J104" s="11" t="s">
@@ -3506,7 +3372,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c r="H105" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J105" s="11" t="s">
@@ -3526,7 +3392,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c r="H106" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J106" s="11" t="s">
@@ -3546,7 +3412,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c r="H107" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J107" s="11" t="s">
@@ -3566,7 +3432,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c r="H108" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J108" s="11" t="s">
@@ -3586,7 +3452,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c r="H109" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J109" s="11" t="s">
@@ -3606,7 +3472,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c r="H110" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J110" s="11" t="s">
@@ -3626,7 +3492,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c r="H111" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J111" s="11" t="s">
@@ -3646,7 +3512,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c r="H112" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J112" s="11" t="s">
@@ -3666,7 +3532,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c r="H113" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J113" s="11" t="s">
@@ -3686,7 +3552,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c r="H114" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J114" s="11" t="s">
@@ -3706,7 +3572,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c r="H115" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J115" s="11" t="s">
@@ -3726,7 +3592,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c r="H116" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J116" s="11" t="s">
@@ -3746,7 +3612,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c r="H117" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J117" s="11" t="s">
@@ -3766,7 +3632,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c r="H118" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J118" s="11" t="s">
@@ -3786,7 +3652,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c r="H119" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J119" s="11" t="s">
@@ -3806,7 +3672,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c r="H120" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J120" s="11" t="s">
@@ -3826,7 +3692,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c r="H121" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J121" s="11" t="s">
@@ -3846,7 +3712,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c r="H122" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J122" s="11" t="s">
@@ -3866,7 +3732,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c r="H123" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J123" s="11" t="s">
@@ -3886,7 +3752,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c r="H124" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J124" s="11" t="s">
@@ -3906,7 +3772,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c r="H125" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J125" s="11" t="s">
@@ -3926,11 +3792,11 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c r="H126" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J126" s="11" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3946,11 +3812,11 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c r="H127" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J127" s="11" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3966,11 +3832,11 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c r="H128" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J128" s="11" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3986,11 +3852,11 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c r="H129" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="H129:H156" si="4">SUM(C129:G129)</f>
         <v>0</v>
       </c>
       <c r="J129" s="11" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4010,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="J130" s="11" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4030,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="J131" s="11" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4046,11 +3912,11 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c r="H132" s="7">
-        <f t="shared" ref="H132:H163" si="5">SUM(C132:G132)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J132" s="11" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4066,11 +3932,11 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c r="H133" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J133" s="11" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4086,11 +3952,11 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c r="H134" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J134" s="11" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4106,11 +3972,11 @@
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c r="H135" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J135" s="11" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4126,11 +3992,11 @@
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c r="H136" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J136" s="11" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4146,11 +4012,11 @@
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c r="H137" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J137" s="11" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4166,11 +4032,11 @@
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c r="H138" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J138" s="11" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4186,11 +4052,11 @@
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c r="H139" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J139" s="11" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4206,11 +4072,11 @@
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c r="H140" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J140" s="11" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4226,11 +4092,11 @@
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c r="H141" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J141" s="11" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4246,11 +4112,11 @@
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c r="H142" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J142" s="11" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4266,11 +4132,11 @@
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c r="H143" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J143" s="11" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4278,7 +4144,7 @@
         <v>17</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
@@ -4286,11 +4152,11 @@
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c r="H144" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J144" s="11" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4298,7 +4164,7 @@
         <v>17</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C145" s="8"/>
       <c r="D145" s="8"/>
@@ -4306,11 +4172,11 @@
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
       <c r="H145" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J145" s="11" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4318,7 +4184,7 @@
         <v>17</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
@@ -4326,11 +4192,11 @@
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
       <c r="H146" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J146" s="11" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4346,11 +4212,11 @@
       <c r="F147" s="8"/>
       <c r="G147" s="8"/>
       <c r="H147" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J147" s="11" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4366,11 +4232,11 @@
       <c r="F148" s="8"/>
       <c r="G148" s="8"/>
       <c r="H148" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J148" s="11" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4386,11 +4252,11 @@
       <c r="F149" s="8"/>
       <c r="G149" s="8"/>
       <c r="H149" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J149" s="11" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4406,11 +4272,11 @@
       <c r="F150" s="8"/>
       <c r="G150" s="8"/>
       <c r="H150" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J150" s="11" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4426,11 +4292,11 @@
       <c r="F151" s="8"/>
       <c r="G151" s="8"/>
       <c r="H151" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J151" s="11" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4446,11 +4312,11 @@
       <c r="F152" s="8"/>
       <c r="G152" s="8"/>
       <c r="H152" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J152" s="11" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4466,11 +4332,11 @@
       <c r="F153" s="8"/>
       <c r="G153" s="8"/>
       <c r="H153" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J153" s="11" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4486,11 +4352,11 @@
       <c r="F154" s="8"/>
       <c r="G154" s="8"/>
       <c r="H154" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J154" s="11" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4506,11 +4372,11 @@
       <c r="F155" s="8"/>
       <c r="G155" s="8"/>
       <c r="H155" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J155" s="11" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4526,11 +4392,11 @@
       <c r="F156" s="8"/>
       <c r="G156" s="8"/>
       <c r="H156" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J156" s="11" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4546,11 +4412,11 @@
       <c r="F157" s="8"/>
       <c r="G157" s="8"/>
       <c r="H157" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="H157:H170" si="5">SUM(C157:G157)</f>
         <v>0</v>
       </c>
       <c r="J157" s="11" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="158" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4570,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="J158" s="11" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4590,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="J159" s="11" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4610,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="J160" s="11" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4630,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="J161" s="11" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="162" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4650,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="J162" s="11" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="163" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4670,7 +4536,7 @@
         <v>0</v>
       </c>
       <c r="J163" s="11" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4686,11 +4552,11 @@
       <c r="F164" s="8"/>
       <c r="G164" s="8"/>
       <c r="H164" s="7">
-        <f t="shared" ref="H164:H177" si="6">SUM(C164:G164)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J164" s="11" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="165" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4706,11 +4572,11 @@
       <c r="F165" s="8"/>
       <c r="G165" s="8"/>
       <c r="H165" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J165" s="11" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4726,11 +4592,11 @@
       <c r="F166" s="8"/>
       <c r="G166" s="8"/>
       <c r="H166" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J166" s="11" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4746,11 +4612,11 @@
       <c r="F167" s="8"/>
       <c r="G167" s="8"/>
       <c r="H167" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J167" s="11" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4766,11 +4632,11 @@
       <c r="F168" s="8"/>
       <c r="G168" s="8"/>
       <c r="H168" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J168" s="11" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4786,11 +4652,11 @@
       <c r="F169" s="8"/>
       <c r="G169" s="8"/>
       <c r="H169" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J169" s="11" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="170" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4806,11 +4672,11 @@
       <c r="F170" s="8"/>
       <c r="G170" s="8"/>
       <c r="H170" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J170" s="11" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="171" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4818,7 +4684,7 @@
         <v>17</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C171" s="8"/>
       <c r="D171" s="8"/>
@@ -4826,11 +4692,11 @@
       <c r="F171" s="8"/>
       <c r="G171" s="8"/>
       <c r="H171" s="7">
-        <f t="shared" si="6"/>
+        <f>SUM(C171:G171)</f>
         <v>0</v>
       </c>
       <c r="J171" s="11" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
     </row>
     <row r="172" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4838,7 +4704,7 @@
         <v>17</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C172" s="8"/>
       <c r="D172" s="8"/>
@@ -4846,11 +4712,11 @@
       <c r="F172" s="8"/>
       <c r="G172" s="8"/>
       <c r="H172" s="7">
-        <f t="shared" si="6"/>
+        <f>SUM(C172:G172)</f>
         <v>0</v>
       </c>
       <c r="J172" s="11" t="s">
-        <v>186</v>
+        <v>140</v>
       </c>
     </row>
     <row r="173" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4858,7 +4724,7 @@
         <v>17</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C173" s="8"/>
       <c r="D173" s="8"/>
@@ -4866,11 +4732,11 @@
       <c r="F173" s="8"/>
       <c r="G173" s="8"/>
       <c r="H173" s="7">
-        <f t="shared" si="6"/>
+        <f>SUM(C173:G173)</f>
         <v>0</v>
       </c>
       <c r="J173" s="11" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
     </row>
     <row r="174" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4886,11 +4752,11 @@
       <c r="F174" s="8"/>
       <c r="G174" s="8"/>
       <c r="H174" s="7">
-        <f t="shared" si="6"/>
+        <f>SUM(C174:G174)</f>
         <v>0</v>
       </c>
       <c r="J174" s="11" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
     <row r="175" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4906,11 +4772,11 @@
       <c r="F175" s="8"/>
       <c r="G175" s="8"/>
       <c r="H175" s="7">
-        <f t="shared" si="6"/>
+        <f>SUM(C175:G175)</f>
         <v>0</v>
       </c>
       <c r="J175" s="11" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
     </row>
     <row r="176" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4926,11 +4792,11 @@
       <c r="F176" s="8"/>
       <c r="G176" s="8"/>
       <c r="H176" s="7">
-        <f t="shared" si="6"/>
+        <f>SUM(C176:G176)</f>
         <v>0</v>
       </c>
       <c r="J176" s="11" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
     </row>
     <row r="177" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4946,11 +4812,11 @@
       <c r="F177" s="8"/>
       <c r="G177" s="8"/>
       <c r="H177" s="7">
-        <f t="shared" si="6"/>
+        <f>SUM(C177:G177)</f>
         <v>0</v>
       </c>
       <c r="J177" s="11" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
     </row>
     <row r="213" spans="8:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4981,21 +4847,21 @@
     <mergeCell ref="H1:H2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J152" r:id="rId1" display="https://leetcode.com/problems/valid-parentheses/" xr:uid="{E156D9EF-CC88-4773-B834-3696B6256CB9}"/>
-    <hyperlink ref="J153" r:id="rId2" display="https://leetcode.com/problems/design-a-stack-with-increment-operation/" xr:uid="{FD21A1DA-29DA-495F-A5D7-C1064A48F08B}"/>
-    <hyperlink ref="J154" r:id="rId3" display="https://leetcode.com/problems/minimum-add-to-make-parentheses-valid/" xr:uid="{9F19E74B-47DD-4AA3-9DB6-27A59E528E67}"/>
-    <hyperlink ref="J155" r:id="rId4" display="https://leetcode.com/problems/minimum-cost-tree-from-leaf-values/" xr:uid="{5D1F5EA9-1108-4B4E-95B3-19F49B9F2549}"/>
-    <hyperlink ref="J156" r:id="rId5" display="https://leetcode.com/problems/daily-temperatures/" xr:uid="{381CB745-3BA9-4779-8654-2BFED9DFFC0A}"/>
-    <hyperlink ref="J157" r:id="rId6" display="https://leetcode.com/problems/score-of-parentheses/" xr:uid="{D4AE5FC6-09DA-42B6-8721-F9C5B8CAEC8A}"/>
-    <hyperlink ref="J158" r:id="rId7" display="https://leetcode.com/problems/validate-stack-sequences/" xr:uid="{AC9025BA-64F1-495B-94AA-DFF19E87BC2F}"/>
-    <hyperlink ref="J159" r:id="rId8" display="https://leetcode.com/problems/reverse-substrings-between-each-pair-of-parentheses/" xr:uid="{4BF2B810-74AD-411B-93C6-CEB308F9DC1C}"/>
-    <hyperlink ref="J160" r:id="rId9" display="https://leetcode.com/problems/minimum-remove-to-make-valid-parentheses/" xr:uid="{893C5263-5D51-4D79-AAAD-5649D2180F6C}"/>
-    <hyperlink ref="J161" r:id="rId10" display="https://leetcode.com/problems/online-stock-span/" xr:uid="{16D58146-1701-4C1A-B405-03E48257D927}"/>
-    <hyperlink ref="J162" r:id="rId11" display="https://leetcode.com/problems/binary-search-tree-iterator/" xr:uid="{6D536E38-58DD-4022-87F7-35F22A95B854}"/>
-    <hyperlink ref="J163" r:id="rId12" display="https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string-ii/" xr:uid="{8D140D89-E687-4667-B95F-8754B36FD06F}"/>
-    <hyperlink ref="J164" r:id="rId13" display="https://leetcode.com/problems/ternary-expression-parser/" xr:uid="{F24116DD-A25E-40FF-B6DB-1162F30D5B9A}"/>
-    <hyperlink ref="J165" r:id="rId14" display="https://leetcode.com/problems/check-if-word-is-valid-after-substitutions/" xr:uid="{28E1431D-BC55-44BA-B398-9C674E9467C2}"/>
-    <hyperlink ref="J166" r:id="rId15" display="https://leetcode.com/problems/flatten-nested-list-iterator/" xr:uid="{34F1DAE6-2CA0-4285-A326-D9F5378EFE5F}"/>
+    <hyperlink ref="J149" r:id="rId1" display="https://leetcode.com/problems/valid-parentheses/" xr:uid="{E156D9EF-CC88-4773-B834-3696B6256CB9}"/>
+    <hyperlink ref="J150" r:id="rId2" display="https://leetcode.com/problems/design-a-stack-with-increment-operation/" xr:uid="{FD21A1DA-29DA-495F-A5D7-C1064A48F08B}"/>
+    <hyperlink ref="J151" r:id="rId3" display="https://leetcode.com/problems/minimum-add-to-make-parentheses-valid/" xr:uid="{9F19E74B-47DD-4AA3-9DB6-27A59E528E67}"/>
+    <hyperlink ref="J174" r:id="rId4" display="https://leetcode.com/problems/minimum-cost-tree-from-leaf-values/" xr:uid="{5D1F5EA9-1108-4B4E-95B3-19F49B9F2549}"/>
+    <hyperlink ref="J175" r:id="rId5" display="https://leetcode.com/problems/daily-temperatures/" xr:uid="{381CB745-3BA9-4779-8654-2BFED9DFFC0A}"/>
+    <hyperlink ref="J176" r:id="rId6" display="https://leetcode.com/problems/score-of-parentheses/" xr:uid="{D4AE5FC6-09DA-42B6-8721-F9C5B8CAEC8A}"/>
+    <hyperlink ref="J177" r:id="rId7" display="https://leetcode.com/problems/validate-stack-sequences/" xr:uid="{AC9025BA-64F1-495B-94AA-DFF19E87BC2F}"/>
+    <hyperlink ref="J152" r:id="rId8" display="https://leetcode.com/problems/reverse-substrings-between-each-pair-of-parentheses/" xr:uid="{4BF2B810-74AD-411B-93C6-CEB308F9DC1C}"/>
+    <hyperlink ref="J153" r:id="rId9" display="https://leetcode.com/problems/minimum-remove-to-make-valid-parentheses/" xr:uid="{893C5263-5D51-4D79-AAAD-5649D2180F6C}"/>
+    <hyperlink ref="J154" r:id="rId10" display="https://leetcode.com/problems/online-stock-span/" xr:uid="{16D58146-1701-4C1A-B405-03E48257D927}"/>
+    <hyperlink ref="J155" r:id="rId11" display="https://leetcode.com/problems/binary-search-tree-iterator/" xr:uid="{6D536E38-58DD-4022-87F7-35F22A95B854}"/>
+    <hyperlink ref="J156" r:id="rId12" display="https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string-ii/" xr:uid="{8D140D89-E687-4667-B95F-8754B36FD06F}"/>
+    <hyperlink ref="J157" r:id="rId13" display="https://leetcode.com/problems/ternary-expression-parser/" xr:uid="{F24116DD-A25E-40FF-B6DB-1162F30D5B9A}"/>
+    <hyperlink ref="J158" r:id="rId14" display="https://leetcode.com/problems/check-if-word-is-valid-after-substitutions/" xr:uid="{28E1431D-BC55-44BA-B398-9C674E9467C2}"/>
+    <hyperlink ref="J159" r:id="rId15" display="https://leetcode.com/problems/flatten-nested-list-iterator/" xr:uid="{34F1DAE6-2CA0-4285-A326-D9F5378EFE5F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId16"/>
